--- a/assets/Sources.xlsx
+++ b/assets/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\HVAC_News_Scraper\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEA65E8-CF6F-4246-BECE-9B42891EC36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDF28D1-ECE9-464B-8228-663AE728EA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1136,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="H4" s="11">
         <f>COUNTIF(D1:D1000, "COMPLETED")</f>
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="H5" s="13">
         <f>COUNTIF(D1:D1000, "NOT YET COMPLETED")</f>
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2470,11 +2470,11 @@
       <c r="B92" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C92" s="16" t="s">
         <v>192</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2484,7 +2484,7 @@
       <c r="B93" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C93" s="16" t="s">
         <v>194</v>
       </c>
       <c r="D93" s="2" t="s">

--- a/assets/Sources.xlsx
+++ b/assets/Sources.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29304"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29307"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\HVAC_News_Scraper\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDF28D1-ECE9-464B-8228-663AE728EA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6F2A06-B910-4794-8BC6-6326C763AD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="203">
   <si>
     <t>Type</t>
   </si>
@@ -665,6 +665,9 @@
   </si>
   <si>
     <t>no definite dates</t>
+  </si>
+  <si>
+    <t>timing issue on subpage</t>
   </si>
 </sst>
 </file>
@@ -1137,7 +1140,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88"/>
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1183,7 +1186,7 @@
       </c>
       <c r="H2" s="7">
         <f>COUNTIF(D1:D1000, "WITH ISSUES")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1225,7 +1228,7 @@
       </c>
       <c r="H4" s="11">
         <f>COUNTIF(D1:D1000, "COMPLETED")</f>
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1246,7 +1249,7 @@
       </c>
       <c r="H5" s="13">
         <f>COUNTIF(D1:D1000, "NOT YET COMPLETED")</f>
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2488,7 +2491,7 @@
         <v>194</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2498,11 +2501,11 @@
       <c r="B94" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C94" s="16" t="s">
         <v>196</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2512,11 +2515,14 @@
       <c r="B95" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C95" s="16" t="s">
         <v>198</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="E95" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">

--- a/assets/Sources.xlsx
+++ b/assets/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\HVAC_News_Scraper\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6F2A06-B910-4794-8BC6-6326C763AD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B960FF58-C4CB-4A61-B7E0-27459F6CCBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -667,7 +667,7 @@
     <t>no definite dates</t>
   </si>
   <si>
-    <t>timing issue on subpage</t>
+    <t>messy classes</t>
   </si>
 </sst>
 </file>
@@ -1139,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/assets/Sources.xlsx
+++ b/assets/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\HVAC_News_Scraper\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B960FF58-C4CB-4A61-B7E0-27459F6CCBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51B9143-BBB0-477B-AE99-9E964C46A845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1139,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="H4" s="11">
         <f>COUNTIF(D1:D1000, "COMPLETED")</f>
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="H5" s="13">
         <f>COUNTIF(D1:D1000, "NOT YET COMPLETED")</f>
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1494,7 +1494,7 @@
         <v>51</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2532,11 +2532,11 @@
       <c r="B96" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C96" s="16" t="s">
         <v>200</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Sources.xlsx
+++ b/assets/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\HVAC_News_Scraper\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51B9143-BBB0-477B-AE99-9E964C46A845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A2BFDE-F80F-4232-99C2-FB4BBFFA9FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1140,7 +1140,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1504,7 +1504,7 @@
       <c r="B23" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="16" t="s">
         <v>53</v>
       </c>
       <c r="D23" s="2" t="s">

--- a/assets/Sources.xlsx
+++ b/assets/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\HVAC_News_Scraper\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A2BFDE-F80F-4232-99C2-FB4BBFFA9FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6B19CE-6187-41A2-84D4-71463747F57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="204">
   <si>
     <t>Type</t>
   </si>
@@ -668,6 +668,9 @@
   </si>
   <si>
     <t>messy classes</t>
+  </si>
+  <si>
+    <t>no explicit date used</t>
   </si>
 </sst>
 </file>
@@ -1139,8 +1142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1186,7 +1189,7 @@
       </c>
       <c r="H2" s="7">
         <f>COUNTIF(D1:D1000, "WITH ISSUES")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1228,7 +1231,7 @@
       </c>
       <c r="H4" s="11">
         <f>COUNTIF(D1:D1000, "COMPLETED")</f>
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1249,7 +1252,7 @@
       </c>
       <c r="H5" s="13">
         <f>COUNTIF(D1:D1000, "NOT YET COMPLETED")</f>
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1413,7 +1416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>4</v>
       </c>
@@ -1427,7 +1430,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>4</v>
       </c>
@@ -1441,7 +1444,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>4</v>
       </c>
@@ -1455,7 +1458,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
@@ -1469,7 +1472,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
@@ -1483,7 +1486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>4</v>
       </c>
@@ -1497,7 +1500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>4</v>
       </c>
@@ -1508,10 +1511,10 @@
         <v>53</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>4</v>
       </c>
@@ -1525,35 +1528,38 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="16" t="s">
         <v>57</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="16" t="s">
         <v>59</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>4</v>
       </c>
@@ -1567,7 +1573,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>4</v>
       </c>
@@ -1581,7 +1587,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>4</v>
       </c>
@@ -1595,7 +1601,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>4</v>
       </c>
@@ -1609,7 +1615,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>4</v>
       </c>
@@ -1623,7 +1629,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>4</v>
       </c>

--- a/assets/Sources.xlsx
+++ b/assets/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\HVAC_News_Scraper\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6B19CE-6187-41A2-84D4-71463747F57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC1464F-FECA-406F-B3FE-D93D0D29DF9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1142,8 +1142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="H4" s="11">
         <f>COUNTIF(D1:D1000, "COMPLETED")</f>
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="H5" s="13">
         <f>COUNTIF(D1:D1000, "NOT YET COMPLETED")</f>
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1566,11 +1566,11 @@
       <c r="B27" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="16" t="s">
         <v>61</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1580,11 +1580,11 @@
       <c r="B28" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="16" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">

--- a/assets/Sources.xlsx
+++ b/assets/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\HVAC_News_Scraper\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC1464F-FECA-406F-B3FE-D93D0D29DF9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E17D98A-9216-43F0-BB95-71B4FE9802D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="206">
   <si>
     <t>Type</t>
   </si>
@@ -671,6 +671,12 @@
   </si>
   <si>
     <t>no explicit date used</t>
+  </si>
+  <si>
+    <t>no news</t>
+  </si>
+  <si>
+    <t>Error: 403  - Forbidden</t>
   </si>
 </sst>
 </file>
@@ -1142,8 +1148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1210,7 +1216,7 @@
       </c>
       <c r="H3" s="9">
         <f>COUNTIF(D1:D1000, "PAGE UNRESPONSIVE")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1231,7 +1237,7 @@
       </c>
       <c r="H4" s="11">
         <f>COUNTIF(D1:D1000, "COMPLETED")</f>
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1252,7 +1258,7 @@
       </c>
       <c r="H5" s="13">
         <f>COUNTIF(D1:D1000, "NOT YET COMPLETED")</f>
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1359,6 +1365,9 @@
       <c r="D12" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E12" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -1598,7 +1607,7 @@
         <v>65</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1608,11 +1617,11 @@
       <c r="B30" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="16" t="s">
         <v>67</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1622,11 +1631,14 @@
       <c r="B31" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="16" t="s">
         <v>69</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1636,11 +1648,11 @@
       <c r="B32" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="16" t="s">
         <v>71</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1650,11 +1662,11 @@
       <c r="B33" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="16" t="s">
         <v>73</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1664,11 +1676,11 @@
       <c r="B34" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="16" t="s">
         <v>75</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1678,11 +1690,11 @@
       <c r="B35" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="16" t="s">
         <v>77</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1696,7 +1708,7 @@
         <v>79</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2677,7 +2689,7 @@
     <hyperlink ref="C96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId96"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId96"/>
+  <legacyDrawing r:id="rId97"/>
 </worksheet>
 </file>
--- a/assets/Sources.xlsx
+++ b/assets/Sources.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\HVAC_News_Scraper\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E17D98A-9216-43F0-BB95-71B4FE9802D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FEECEB-AC74-497C-B8A6-F0C2758B8B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="207">
   <si>
     <t>Type</t>
   </si>
@@ -677,6 +677,9 @@
   </si>
   <si>
     <t>Error: 403  - Forbidden</t>
+  </si>
+  <si>
+    <t>Site is protected by Captcha</t>
   </si>
 </sst>
 </file>
@@ -1148,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1195,7 +1198,7 @@
       </c>
       <c r="H2" s="7">
         <f>COUNTIF(D1:D1000, "WITH ISSUES")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1237,7 +1240,7 @@
       </c>
       <c r="H4" s="11">
         <f>COUNTIF(D1:D1000, "COMPLETED")</f>
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1258,7 +1261,7 @@
       </c>
       <c r="H5" s="13">
         <f>COUNTIF(D1:D1000, "NOT YET COMPLETED")</f>
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1655,7 +1658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>4</v>
       </c>
@@ -1669,7 +1672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>4</v>
       </c>
@@ -1683,7 +1686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>4</v>
       </c>
@@ -1697,7 +1700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>4</v>
       </c>
@@ -1711,91 +1714,97 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="16" t="s">
         <v>81</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="16" t="s">
         <v>83</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="16" t="s">
         <v>85</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="16" t="s">
         <v>87</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B41" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="16" t="s">
         <v>89</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B42" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="16" t="s">
         <v>91</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>4</v>
       </c>
@@ -1809,7 +1818,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>4</v>
       </c>
@@ -1823,7 +1832,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>4</v>
       </c>
@@ -1837,7 +1846,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>4</v>
       </c>
@@ -1851,7 +1860,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>4</v>
       </c>
@@ -1865,7 +1874,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>4</v>
       </c>
@@ -2631,7 +2640,7 @@
     <hyperlink ref="C38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
     <hyperlink ref="C39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
     <hyperlink ref="C40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="C41" r:id="rId40" location="news%7C2" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C41" r:id="rId40" location="news|2" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
     <hyperlink ref="C42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
     <hyperlink ref="C43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
     <hyperlink ref="C44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>

--- a/assets/Sources.xlsx
+++ b/assets/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\HVAC_News_Scraper\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FEECEB-AC74-497C-B8A6-F0C2758B8B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910E04A5-51F6-4446-AD6F-10FBBC6D95F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1152,7 +1152,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="H4" s="11">
         <f>COUNTIF(D1:D1000, "COMPLETED")</f>
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="H5" s="13">
         <f>COUNTIF(D1:D1000, "NOT YET COMPLETED")</f>
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1811,7 +1811,7 @@
       <c r="B43" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="16" t="s">
         <v>93</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -1825,11 +1825,11 @@
       <c r="B44" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="16" t="s">
         <v>95</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1839,11 +1839,11 @@
       <c r="B45" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="16" t="s">
         <v>97</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1853,7 +1853,7 @@
       <c r="B46" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="16" t="s">
         <v>99</v>
       </c>
       <c r="D46" s="2" t="s">

--- a/assets/Sources.xlsx
+++ b/assets/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\HVAC_News_Scraper\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910E04A5-51F6-4446-AD6F-10FBBC6D95F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F07EA20-1197-4EEF-89CE-FEC1BF3929B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1151,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="H4" s="11">
         <f>COUNTIF(D1:D1000, "COMPLETED")</f>
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="H5" s="13">
         <f>COUNTIF(D1:D1000, "NOT YET COMPLETED")</f>
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1815,7 +1815,7 @@
         <v>93</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1857,7 +1857,7 @@
         <v>99</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1867,11 +1867,11 @@
       <c r="B47" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="16" t="s">
         <v>101</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1881,11 +1881,11 @@
       <c r="B48" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="16" t="s">
         <v>103</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1895,7 +1895,7 @@
       <c r="B49" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="16" t="s">
         <v>105</v>
       </c>
       <c r="D49" s="2" t="s">

--- a/assets/Sources.xlsx
+++ b/assets/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\HVAC_News_Scraper\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F07EA20-1197-4EEF-89CE-FEC1BF3929B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457DB4FC-1F91-4893-8602-AE792050FA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1151,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="H4" s="11">
         <f>COUNTIF(D1:D1000, "COMPLETED")</f>
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="H5" s="13">
         <f>COUNTIF(D1:D1000, "NOT YET COMPLETED")</f>
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1899,7 +1899,7 @@
         <v>105</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1909,11 +1909,11 @@
       <c r="B50" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="16" t="s">
         <v>107</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1923,11 +1923,11 @@
       <c r="B51" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="16" t="s">
         <v>109</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1937,11 +1937,11 @@
       <c r="B52" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="16" t="s">
         <v>111</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1951,11 +1951,11 @@
       <c r="B53" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="16" t="s">
         <v>113</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1965,11 +1965,11 @@
       <c r="B54" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="16" t="s">
         <v>115</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">

--- a/assets/Sources.xlsx
+++ b/assets/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\HVAC_News_Scraper\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457DB4FC-1F91-4893-8602-AE792050FA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208BDF0A-5188-4EE9-BD05-A10AED73E3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1151,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="H4" s="11">
         <f>COUNTIF(D1:D1000, "COMPLETED")</f>
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="H5" s="13">
         <f>COUNTIF(D1:D1000, "NOT YET COMPLETED")</f>
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1979,11 +1979,11 @@
       <c r="B55" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="16" t="s">
         <v>117</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1993,11 +1993,11 @@
       <c r="B56" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="16" t="s">
         <v>119</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2007,11 +2007,11 @@
       <c r="B57" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="16" t="s">
         <v>121</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2021,7 +2021,7 @@
       <c r="B58" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="16" t="s">
         <v>123</v>
       </c>
       <c r="D58" s="2" t="s">

--- a/assets/Sources.xlsx
+++ b/assets/Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\HVAC_News_Scraper\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208BDF0A-5188-4EE9-BD05-A10AED73E3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A268852-CB10-49A3-8A44-D06CB31994D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="2280" windowWidth="25155" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1151,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="H4" s="11">
         <f>COUNTIF(D1:D1000, "COMPLETED")</f>
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="H5" s="13">
         <f>COUNTIF(D1:D1000, "NOT YET COMPLETED")</f>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2025,7 +2025,7 @@
         <v>123</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2035,7 +2035,7 @@
       <c r="B59" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="16" t="s">
         <v>125</v>
       </c>
       <c r="D59" s="2" t="s">

--- a/assets/Sources.xlsx
+++ b/assets/Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\HVAC_News_Scraper\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A268852-CB10-49A3-8A44-D06CB31994D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C559E20-A9AF-4FA8-9E65-4F649E3256F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="2280" windowWidth="25155" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="208">
   <si>
     <t>Type</t>
   </si>
@@ -680,6 +680,9 @@
   </si>
   <si>
     <t>Site is protected by Captcha</t>
+  </si>
+  <si>
+    <t>Updated</t>
   </si>
 </sst>
 </file>
@@ -849,7 +852,56 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79989013336588644"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59987182226020086"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79989013336588644"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59987182226020086"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1151,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1191,7 +1243,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>207</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>8</v>
@@ -1212,7 +1264,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>207</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>11</v>
@@ -1240,7 +1292,7 @@
       </c>
       <c r="H4" s="11">
         <f>COUNTIF(D1:D1000, "COMPLETED")</f>
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1261,7 +1313,7 @@
       </c>
       <c r="H5" s="13">
         <f>COUNTIF(D1:D1000, "NOT YET COMPLETED")</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1277,12 +1329,12 @@
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="12">
-        <f>SUM(H2:H5)</f>
-        <v>95</v>
+      <c r="G6" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="H6" s="13">
+        <f>COUNTIF(D2:D1001, "Updated")</f>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1298,6 +1350,13 @@
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="G7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="12">
+        <f>SUM(H2:H5)</f>
+        <v>75</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -1310,7 +1369,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1411,7 +1470,7 @@
         <v>37</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1421,7 +1480,7 @@
       <c r="B16" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="16" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -1453,7 +1512,7 @@
         <v>43</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1467,7 +1526,7 @@
         <v>45</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1509,7 +1568,7 @@
         <v>51</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1568,7 +1627,7 @@
         <v>59</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2039,7 +2098,7 @@
         <v>125</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2049,11 +2108,11 @@
       <c r="B60" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="16" t="s">
         <v>127</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2063,11 +2122,11 @@
       <c r="B61" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="16" t="s">
         <v>129</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2077,11 +2136,11 @@
       <c r="B62" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="16" t="s">
         <v>131</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2091,11 +2150,11 @@
       <c r="B63" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="16" t="s">
         <v>133</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -2109,7 +2168,7 @@
         <v>135</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2119,11 +2178,11 @@
       <c r="B65" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="16" t="s">
         <v>137</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -2133,11 +2192,11 @@
       <c r="B66" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="16" t="s">
         <v>139</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -2151,7 +2210,7 @@
         <v>142</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>7</v>
+        <v>207</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2165,7 +2224,7 @@
         <v>144</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>7</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2179,7 +2238,7 @@
         <v>146</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>7</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2193,7 +2252,7 @@
         <v>148</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>7</v>
+        <v>207</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2203,11 +2262,11 @@
       <c r="B71" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="16" t="s">
         <v>150</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>7</v>
+        <v>207</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2221,7 +2280,7 @@
         <v>152</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>7</v>
+        <v>207</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2231,11 +2290,11 @@
       <c r="B73" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="16" t="s">
         <v>154</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>7</v>
+        <v>207</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2249,7 +2308,7 @@
         <v>156</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>7</v>
+        <v>207</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2263,7 +2322,7 @@
         <v>158</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>7</v>
+        <v>207</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2277,7 +2336,7 @@
         <v>160</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>7</v>
+        <v>207</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2291,7 +2350,7 @@
         <v>162</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>7</v>
+        <v>207</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2305,7 +2364,7 @@
         <v>164</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>7</v>
+        <v>207</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2319,7 +2378,7 @@
         <v>166</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>7</v>
+        <v>207</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2333,7 +2392,7 @@
         <v>168</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>7</v>
+        <v>207</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2347,7 +2406,7 @@
         <v>170</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>7</v>
+        <v>207</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2361,7 +2420,7 @@
         <v>172</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>7</v>
+        <v>207</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2375,7 +2434,7 @@
         <v>174</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>7</v>
+        <v>207</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -2389,7 +2448,7 @@
         <v>176</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>7</v>
+        <v>207</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2431,7 +2490,7 @@
         <v>182</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2473,7 +2532,7 @@
         <v>188</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -2518,7 +2577,7 @@
         <v>194</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2563,41 +2622,47 @@
         <v>200</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:D95 A97:A1000 B98:D1000">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>$D2="Updated"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>$D2="Page Unresponsive"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>$D2="With Issues"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>$D2="Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:D1000">
-    <cfRule type="expression" priority="4">
+    <cfRule type="expression" priority="5">
       <formula>$D2="Not Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96:D97">
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>$D96="Page Unresponsive"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7">
+    <cfRule type="expression" dxfId="1" priority="8">
       <formula>$D96="With Issues"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="9">
+    <cfRule type="expression" dxfId="0" priority="10">
       <formula>$D96="Completed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D96" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Completed,Not Yet Completed,Page Unresponsive,With Issues"</formula1>
       <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D96" xr:uid="{063F5AB0-2047-4156-ACED-713D3525561F}">
+      <formula1>"Completed,Not Yet Completed,Page Unresponsive,With Issues, Updated"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -2661,41 +2726,41 @@
     <hyperlink ref="C59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
     <hyperlink ref="C60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
     <hyperlink ref="C61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="C62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="C63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="C64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="C65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="C66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="C67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="C68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="C69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="C70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="C71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="C72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="C73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="C74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="C75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="C76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="C77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="C78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="C79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="C80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="C81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="C82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="C83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="C84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="C85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="C86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="C87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="C88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="C89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="C90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="C91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="C92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="C93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="C94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="C95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="C96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="C63" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="C65" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="C66" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="C67" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="C68" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="C69" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="C70" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="C71" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="C72" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="C73" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="C74" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="C75" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="C76" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="C77" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="C78" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="C79" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="C80" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="C81" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="C82" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="C83" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="C84" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="C85" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="C86" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="C87" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="C88" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="C89" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C90" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="C91" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="C92" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="C93" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="C94" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="C95" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="C96" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="C62" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="C64" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId96"/>

--- a/assets/Sources.xlsx
+++ b/assets/Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\HVAC_News_Scraper\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C559E20-A9AF-4FA8-9E65-4F649E3256F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A62DED-6D50-40A0-BB57-28AAEA3BBFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4785" yWindow="1440" windowWidth="25155" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="209">
   <si>
     <t>Type</t>
   </si>
@@ -683,6 +683,9 @@
   </si>
   <si>
     <t>Updated</t>
+  </si>
+  <si>
+    <t>triggering CloudFlare captcha</t>
   </si>
 </sst>
 </file>
@@ -817,7 +820,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -825,7 +828,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -847,12 +849,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -899,48 +907,6 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79989013336588644"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59987182226020086"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79989013336588644"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59987182226020086"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1203,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1213,7 +1179,7 @@
     <col min="2" max="2" width="50.28515625" customWidth="1"/>
     <col min="3" max="3" width="61.7109375" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" style="17" customWidth="1"/>
     <col min="7" max="7" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1230,142 +1196,142 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <f>COUNTIF(D1:D1000, "WITH ISSUES")</f>
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <f>COUNTIF(D1:D1000, "PAGE UNRESPONSIVE")</f>
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="11">
+      <c r="G4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="10">
         <f>COUNTIF(D1:D1000, "COMPLETED")</f>
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="12">
         <f>COUNTIF(D1:D1000, "NOT YET COMPLETED")</f>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="12">
         <f>COUNTIF(D2:D1001, "Updated")</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <f>SUM(H2:H5)</f>
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1373,13 +1339,13 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1387,13 +1353,13 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1401,13 +1367,13 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1415,30 +1381,30 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="17" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1446,13 +1412,13 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1460,13 +1426,13 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="15" t="s">
+      <c r="A15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1474,13 +1440,13 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="15" t="s">
+      <c r="A16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -1488,13 +1454,13 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="15" t="s">
+      <c r="A17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -1502,13 +1468,13 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="15" t="s">
+      <c r="A18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -1516,13 +1482,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="15" t="s">
+      <c r="A19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -1530,13 +1496,13 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="15" t="s">
+      <c r="A20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1544,13 +1510,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="15" t="s">
+      <c r="A21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -1558,13 +1524,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="15" t="s">
+      <c r="A22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1572,13 +1538,13 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="15" t="s">
+      <c r="A23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>53</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -1586,13 +1552,13 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="15" t="s">
+      <c r="A24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1600,30 +1566,30 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="15" t="s">
+      <c r="A25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="15" t="s">
         <v>57</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="17" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="15" t="s">
+      <c r="A26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="15" t="s">
         <v>59</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -1631,13 +1597,13 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="15" t="s">
+      <c r="A27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="15" t="s">
         <v>61</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -1645,13 +1611,13 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="15" t="s">
+      <c r="A28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="15" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -1659,13 +1625,13 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="15" t="s">
+      <c r="A29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -1673,13 +1639,13 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="15" t="s">
+      <c r="A30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="15" t="s">
         <v>67</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -1687,30 +1653,30 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="15" t="s">
+      <c r="A31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="15" t="s">
         <v>69</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="17" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="15" t="s">
+      <c r="A32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="15" t="s">
         <v>71</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -1718,13 +1684,13 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="15" t="s">
+      <c r="A33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="15" t="s">
         <v>73</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -1732,13 +1698,13 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="15" t="s">
+      <c r="A34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="15" t="s">
         <v>75</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -1746,13 +1712,13 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="15" t="s">
+      <c r="A35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="15" t="s">
         <v>77</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -1760,13 +1726,13 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="15" t="s">
+      <c r="A36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>79</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -1774,47 +1740,47 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="15" t="s">
+      <c r="A37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="15" t="s">
         <v>81</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="17" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="15" t="s">
+      <c r="A38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="15" t="s">
         <v>83</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="17" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="15" t="s">
+      <c r="A39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="15" t="s">
         <v>85</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -1822,13 +1788,13 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="15" t="s">
+      <c r="A40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="15" t="s">
         <v>87</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -1836,13 +1802,13 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="15" t="s">
+      <c r="A41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="15" t="s">
         <v>89</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -1850,13 +1816,13 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="15" t="s">
+      <c r="A42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="15" t="s">
         <v>91</v>
       </c>
       <c r="D42" s="2" t="s">
@@ -1864,13 +1830,13 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="15" t="s">
+      <c r="A43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="15" t="s">
         <v>93</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -1878,13 +1844,13 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="15" t="s">
+      <c r="A44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="15" t="s">
         <v>95</v>
       </c>
       <c r="D44" s="2" t="s">
@@ -1892,13 +1858,13 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" s="15" t="s">
+      <c r="A45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="15" t="s">
         <v>97</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -1906,13 +1872,13 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="15" t="s">
+      <c r="A46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="15" t="s">
         <v>99</v>
       </c>
       <c r="D46" s="2" t="s">
@@ -1920,13 +1886,13 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="15" t="s">
+      <c r="A47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="15" t="s">
         <v>101</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -1934,13 +1900,13 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" s="15" t="s">
+      <c r="A48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="15" t="s">
         <v>103</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -1948,13 +1914,13 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" s="15" t="s">
+      <c r="A49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="15" t="s">
         <v>105</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -1962,13 +1928,13 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" s="15" t="s">
+      <c r="A50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="15" t="s">
         <v>107</v>
       </c>
       <c r="D50" s="2" t="s">
@@ -1976,13 +1942,13 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="15" t="s">
+      <c r="A51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C51" s="15" t="s">
         <v>109</v>
       </c>
       <c r="D51" s="2" t="s">
@@ -1990,13 +1956,13 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" s="15" t="s">
+      <c r="A52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="15" t="s">
         <v>111</v>
       </c>
       <c r="D52" s="2" t="s">
@@ -2004,13 +1970,13 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" s="15" t="s">
+      <c r="A53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C53" s="15" t="s">
         <v>113</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -2018,13 +1984,13 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B54" s="15" t="s">
+      <c r="A54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="15" t="s">
         <v>115</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -2032,13 +1998,13 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B55" s="15" t="s">
+      <c r="A55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C55" s="15" t="s">
         <v>117</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -2046,13 +2012,13 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B56" s="15" t="s">
+      <c r="A56" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C56" s="15" t="s">
         <v>119</v>
       </c>
       <c r="D56" s="2" t="s">
@@ -2060,13 +2026,13 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B57" s="15" t="s">
+      <c r="A57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C57" s="15" t="s">
         <v>121</v>
       </c>
       <c r="D57" s="2" t="s">
@@ -2074,13 +2040,13 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B58" s="15" t="s">
+      <c r="A58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C58" s="15" t="s">
         <v>123</v>
       </c>
       <c r="D58" s="2" t="s">
@@ -2088,13 +2054,13 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59" s="15" t="s">
+      <c r="A59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C59" s="15" t="s">
         <v>125</v>
       </c>
       <c r="D59" s="2" t="s">
@@ -2102,13 +2068,13 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" s="15" t="s">
+      <c r="A60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C60" s="15" t="s">
         <v>127</v>
       </c>
       <c r="D60" s="2" t="s">
@@ -2116,13 +2082,13 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B61" s="15" t="s">
+      <c r="A61" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C61" s="15" t="s">
         <v>129</v>
       </c>
       <c r="D61" s="2" t="s">
@@ -2130,13 +2096,13 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62" s="4" t="s">
+      <c r="A62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C62" s="15" t="s">
         <v>131</v>
       </c>
       <c r="D62" s="2" t="s">
@@ -2144,13 +2110,13 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B63" s="4" t="s">
+      <c r="A63" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C63" s="15" t="s">
         <v>133</v>
       </c>
       <c r="D63" s="2" t="s">
@@ -2158,237 +2124,246 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B64" s="15" t="s">
+      <c r="A64" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="4" t="s">
         <v>135</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B65" s="15" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C65" s="15" t="s">
         <v>137</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B66" s="15" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C66" s="15" t="s">
         <v>139</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B67" s="4" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="4" t="s">
         <v>142</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B68" s="4" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="4" t="s">
         <v>144</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B69" s="4" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="4" t="s">
         <v>146</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B70" s="4" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="4" t="s">
         <v>148</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B71" s="4" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C71" s="15" t="s">
         <v>150</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B72" s="4" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="4" t="s">
         <v>152</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B73" s="4" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="C73" s="15" t="s">
         <v>154</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B74" s="4" t="s">
+      <c r="E73" s="17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="4" t="s">
         <v>156</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B75" s="4" t="s">
+      <c r="E74" s="17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="4" t="s">
         <v>158</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B76" s="4" t="s">
+      <c r="E75" s="17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="4" t="s">
         <v>160</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B77" s="4" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="4" t="s">
         <v>162</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B78" s="4" t="s">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="C78" s="15" t="s">
         <v>164</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B79" s="4" t="s">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="4" t="s">
         <v>166</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B80" s="4" t="s">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C80" s="16" t="s">
+      <c r="C80" s="15" t="s">
         <v>168</v>
       </c>
       <c r="D80" s="2" t="s">
@@ -2396,13 +2371,13 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B81" s="4" t="s">
+      <c r="A81" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C81" s="16" t="s">
+      <c r="C81" s="15" t="s">
         <v>170</v>
       </c>
       <c r="D81" s="2" t="s">
@@ -2410,13 +2385,13 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B82" s="4" t="s">
+      <c r="A82" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C82" s="16" t="s">
+      <c r="C82" s="15" t="s">
         <v>172</v>
       </c>
       <c r="D82" s="2" t="s">
@@ -2424,13 +2399,13 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B83" s="4" t="s">
+      <c r="A83" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C83" s="16" t="s">
+      <c r="C83" s="15" t="s">
         <v>174</v>
       </c>
       <c r="D83" s="2" t="s">
@@ -2438,13 +2413,13 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B84" s="4" t="s">
+      <c r="A84" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C84" s="16" t="s">
+      <c r="C84" s="15" t="s">
         <v>176</v>
       </c>
       <c r="D84" s="2" t="s">
@@ -2452,55 +2427,55 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B85" s="4" t="s">
+      <c r="A85" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C85" s="16" t="s">
+      <c r="C85" s="15" t="s">
         <v>178</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>7</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B86" s="4" t="s">
+      <c r="A86" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="4" t="s">
         <v>180</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>7</v>
+        <v>207</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B87" s="4" t="s">
+      <c r="A87" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C87" s="16" t="s">
+      <c r="C87" s="15" t="s">
         <v>182</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>16</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B88" s="4" t="s">
+      <c r="A88" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C88" s="16" t="s">
+      <c r="C88" s="15" t="s">
         <v>184</v>
       </c>
       <c r="D88" s="2" t="s">
@@ -2508,27 +2483,27 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B89" s="4" t="s">
+      <c r="A89" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C89" s="16" t="s">
+      <c r="C89" s="15" t="s">
         <v>186</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>7</v>
+        <v>207</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B90" s="4" t="s">
+      <c r="A90" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C90" s="16" t="s">
+      <c r="C90" s="15" t="s">
         <v>188</v>
       </c>
       <c r="D90" s="2" t="s">
@@ -2536,30 +2511,30 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B91" s="4" t="s">
+      <c r="A91" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C91" s="16" t="s">
+      <c r="C91" s="15" t="s">
         <v>190</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="17" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B92" s="4" t="s">
+      <c r="A92" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C92" s="16" t="s">
+      <c r="C92" s="15" t="s">
         <v>192</v>
       </c>
       <c r="D92" s="2" t="s">
@@ -2567,13 +2542,13 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B93" s="4" t="s">
+      <c r="A93" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C93" s="16" t="s">
+      <c r="C93" s="15" t="s">
         <v>194</v>
       </c>
       <c r="D93" s="2" t="s">
@@ -2581,13 +2556,13 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B94" s="4" t="s">
+      <c r="A94" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C94" s="16" t="s">
+      <c r="C94" s="15" t="s">
         <v>196</v>
       </c>
       <c r="D94" s="2" t="s">
@@ -2595,30 +2570,30 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B95" s="4" t="s">
+      <c r="A95" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C95" s="16" t="s">
+      <c r="C95" s="15" t="s">
         <v>198</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="17" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B96" s="4" t="s">
+      <c r="A96" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C96" s="16" t="s">
+      <c r="C96" s="15" t="s">
         <v>200</v>
       </c>
       <c r="D96" s="2" t="s">

--- a/assets/Sources.xlsx
+++ b/assets/Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\HVAC_News_Scraper\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A62DED-6D50-40A0-BB57-28AAEA3BBFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96C0B81-3A9B-4F4F-AC7D-7829EA57CE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4785" yWindow="1440" windowWidth="25155" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1170,7 +1170,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1258,7 +1258,7 @@
       </c>
       <c r="H4" s="10">
         <f>COUNTIF(D1:D1000, "COMPLETED")</f>
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="H5" s="12">
         <f>COUNTIF(D1:D1000, "NOT YET COMPLETED")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="H6" s="12">
         <f>COUNTIF(D2:D1001, "Updated")</f>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="H7" s="11">
         <f>SUM(H2:H5)</f>
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2507,7 +2507,7 @@
         <v>188</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>16</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -2538,7 +2538,7 @@
         <v>192</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2566,7 +2566,7 @@
         <v>196</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">

--- a/assets/Sources.xlsx
+++ b/assets/Sources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29318"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\HVAC_News_Scraper\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96C0B81-3A9B-4F4F-AC7D-7829EA57CE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26B0AE6-EED4-45C7-8FDA-D2069A609AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2055" yWindow="1485" windowWidth="25155" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -860,7 +860,35 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79989013336588644"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59987182226020086"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1169,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1279,7 +1307,7 @@
       </c>
       <c r="H5" s="12">
         <f>COUNTIF(D1:D1000, "NOT YET COMPLETED")</f>
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1300,7 +1328,7 @@
       </c>
       <c r="H6" s="12">
         <f>COUNTIF(D2:D1001, "Updated")</f>
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1321,7 +1349,7 @@
       </c>
       <c r="H7" s="11">
         <f>SUM(H2:H5)</f>
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2538,7 +2566,7 @@
         <v>192</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>16</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2552,7 +2580,7 @@
         <v>194</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>16</v>
+        <v>207</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2566,7 +2594,7 @@
         <v>196</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>16</v>
+        <v>207</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2597,37 +2625,51 @@
         <v>200</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>16</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:D95 A97:A1000 B98:D1000">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="10" priority="5">
       <formula>$D2="Updated"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>$D2="Page Unresponsive"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>$D2="With Issues"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="7" priority="10">
       <formula>$D2="Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:D1000">
-    <cfRule type="expression" priority="5">
+    <cfRule type="expression" priority="9">
       <formula>$D2="Not Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96:D97">
-    <cfRule type="expression" dxfId="2" priority="7">
+    <cfRule type="expression" dxfId="6" priority="11">
       <formula>$D96="Page Unresponsive"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="8">
+    <cfRule type="expression" dxfId="5" priority="12">
       <formula>$D96="With Issues"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="10">
+    <cfRule type="expression" dxfId="4" priority="14">
+      <formula>$D96="Completed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A96:D96">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$D96="Updated"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>$D96="Page Unresponsive"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>$D96="With Issues"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>$D96="Completed"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/assets/Sources.xlsx
+++ b/assets/Sources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29322"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\HVAC_News_Scraper\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26B0AE6-EED4-45C7-8FDA-D2069A609AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F966A0-2D95-45E8-BEA8-6E84A3C59F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="1485" windowWidth="25155" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -885,13 +885,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9" tint="0.79989013336588644"/>
         </patternFill>
       </fill>
@@ -907,6 +900,13 @@
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1197,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="H5" s="12">
         <f>COUNTIF(D1:D1000, "NOT YET COMPLETED")</f>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="H6" s="12">
         <f>COUNTIF(D2:D1001, "Updated")</f>
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="H7" s="11">
         <f>SUM(H2:H5)</f>
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1363,7 +1363,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1506,7 +1506,7 @@
         <v>43</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>16</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2629,17 +2629,31 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:D95 A97:A1000 B98:D1000">
+  <conditionalFormatting sqref="A97:A1000 B98:D1000">
     <cfRule type="expression" dxfId="10" priority="5">
+      <formula>$D97="Updated"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="7">
+      <formula>$D97="Page Unresponsive"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="8">
+      <formula>$D97="With Issues"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="10">
+      <formula>$D97="Completed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:D96">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>$D2="Updated"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>$D2="Page Unresponsive"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>$D2="With Issues"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="10">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$D2="Completed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2649,27 +2663,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96:D97">
-    <cfRule type="expression" dxfId="6" priority="11">
+    <cfRule type="expression" dxfId="2" priority="11">
       <formula>$D96="Page Unresponsive"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="12">
+    <cfRule type="expression" dxfId="1" priority="12">
       <formula>$D96="With Issues"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="14">
-      <formula>$D96="Completed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A96:D96">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>$D96="Updated"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>$D96="Page Unresponsive"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>$D96="With Issues"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="0" priority="14">
       <formula>$D96="Completed"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/assets/Sources.xlsx
+++ b/assets/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\HVAC_News_Scraper\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F966A0-2D95-45E8-BEA8-6E84A3C59F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32CEFCE-ACF5-4B9D-BE47-0313F2E2B6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="209">
   <si>
     <t>Type</t>
   </si>
@@ -1197,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1941,7 +1941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>4</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>4</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>4</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>4</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>4</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>4</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>4</v>
       </c>
@@ -2052,8 +2052,11 @@
       <c r="D56" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2067,7 +2070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2081,7 +2084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2095,7 +2098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>4</v>
       </c>
@@ -2109,7 +2112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>4</v>
       </c>
@@ -2123,7 +2126,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2137,7 +2140,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>4</v>
       </c>
@@ -2151,7 +2154,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>4</v>
       </c>
@@ -2163,6 +2166,9 @@
       </c>
       <c r="D64" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">

--- a/assets/Sources.xlsx
+++ b/assets/Sources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29322"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\HVAC_News_Scraper\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32CEFCE-ACF5-4B9D-BE47-0313F2E2B6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0004FFC3-B34E-47FC-931B-1DB6A4FE42A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2055" yWindow="1485" windowWidth="25155" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1197,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/assets/Sources.xlsx
+++ b/assets/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\HVAC_News_Scraper\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0004FFC3-B34E-47FC-931B-1DB6A4FE42A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691BB86B-E693-4654-B474-0BD85A99CA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2055" yWindow="1485" windowWidth="25155" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1197,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/assets/Sources.xlsx
+++ b/assets/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\HVAC_News_Scraper\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691BB86B-E693-4654-B474-0BD85A99CA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FE8C7A-33B6-438A-BADD-825E80999111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2055" yWindow="1485" windowWidth="25155" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="208">
   <si>
     <t>Type</t>
   </si>
@@ -668,9 +668,6 @@
   </si>
   <si>
     <t>messy classes</t>
-  </si>
-  <si>
-    <t>no explicit date used</t>
   </si>
   <si>
     <t>no news</t>
@@ -1198,7 +1195,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1237,14 +1234,14 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="6">
         <f>COUNTIF(D1:D1000, "WITH ISSUES")</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1258,7 +1255,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>11</v>
@@ -1286,7 +1283,7 @@
       </c>
       <c r="H4" s="10">
         <f>COUNTIF(D1:D1000, "COMPLETED")</f>
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1324,7 +1321,7 @@
         <v>7</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H6" s="12">
         <f>COUNTIF(D2:D1001, "Updated")</f>
@@ -1363,7 +1360,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1422,7 +1419,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1506,7 +1503,7 @@
         <v>43</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1604,10 +1601,7 @@
         <v>57</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>203</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1694,7 +1688,7 @@
         <v>11</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1781,7 +1775,7 @@
         <v>8</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1798,7 +1792,7 @@
         <v>8</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2053,7 +2047,7 @@
         <v>7</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2168,7 +2162,7 @@
         <v>7</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2210,7 +2204,7 @@
         <v>142</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2224,7 +2218,7 @@
         <v>144</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2238,7 +2232,7 @@
         <v>146</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2252,7 +2246,7 @@
         <v>148</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2266,7 +2260,7 @@
         <v>150</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2280,7 +2274,7 @@
         <v>152</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2294,10 +2288,10 @@
         <v>154</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E73" s="17" t="s">
         <v>207</v>
-      </c>
-      <c r="E73" s="17" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2311,10 +2305,10 @@
         <v>156</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E74" s="17" t="s">
         <v>207</v>
-      </c>
-      <c r="E74" s="17" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2328,10 +2322,10 @@
         <v>158</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E75" s="17" t="s">
         <v>207</v>
-      </c>
-      <c r="E75" s="17" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2345,7 +2339,7 @@
         <v>160</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2359,7 +2353,7 @@
         <v>162</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2373,7 +2367,7 @@
         <v>164</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2387,7 +2381,7 @@
         <v>166</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2401,7 +2395,7 @@
         <v>168</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2415,7 +2409,7 @@
         <v>170</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2429,7 +2423,7 @@
         <v>172</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2443,7 +2437,7 @@
         <v>174</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -2457,7 +2451,7 @@
         <v>176</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2471,7 +2465,7 @@
         <v>178</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2485,7 +2479,7 @@
         <v>180</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2499,7 +2493,7 @@
         <v>182</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2527,7 +2521,7 @@
         <v>186</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2541,7 +2535,7 @@
         <v>188</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -2572,7 +2566,7 @@
         <v>192</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2586,7 +2580,7 @@
         <v>194</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2600,7 +2594,7 @@
         <v>196</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2631,7 +2625,7 @@
         <v>200</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Sources.xlsx
+++ b/assets/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\HVAC_News_Scraper\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FE8C7A-33B6-438A-BADD-825E80999111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4E1FB2-AE35-4C6B-8838-66CE9E9E75DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2055" yWindow="1485" windowWidth="25155" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1194,8 +1194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1412,7 +1412,7 @@
       <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="15" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="2" t="s">

--- a/assets/Sources.xlsx
+++ b/assets/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\HVAC_News_Scraper\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4E1FB2-AE35-4C6B-8838-66CE9E9E75DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016613EB-10B1-42E3-9B28-D60B4B4ACA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2055" yWindow="1485" windowWidth="25155" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1194,8 +1194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F88" sqref="F88"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="H2" s="6">
         <f>COUNTIF(D1:D1000, "WITH ISSUES")</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="H6" s="12">
         <f>COUNTIF(D2:D1001, "Updated")</f>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="H7" s="11">
         <f>SUM(H2:H5)</f>
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1374,7 +1374,7 @@
         <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>8</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">

--- a/assets/Sources.xlsx
+++ b/assets/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\HVAC_News_Scraper\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016613EB-10B1-42E3-9B28-D60B4B4ACA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4691D996-3513-4D84-BDAA-7C7923F49CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2055" yWindow="1485" windowWidth="25155" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="209">
   <si>
     <t>Type</t>
   </si>
@@ -664,9 +664,6 @@
     <t>https://www.heatpumps.org.uk/news-events/</t>
   </si>
   <si>
-    <t>no definite dates</t>
-  </si>
-  <si>
     <t>messy classes</t>
   </si>
   <si>
@@ -683,6 +680,12 @@
   </si>
   <si>
     <t>triggering CloudFlare captcha</t>
+  </si>
+  <si>
+    <t>no dates</t>
+  </si>
+  <si>
+    <t>dates no days</t>
   </si>
 </sst>
 </file>
@@ -1194,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1234,7 +1237,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>8</v>
@@ -1255,7 +1258,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>11</v>
@@ -1321,7 +1324,7 @@
         <v>7</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H6" s="12">
         <f>COUNTIF(D2:D1001, "Updated")</f>
@@ -1360,7 +1363,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1374,7 +1377,7 @@
         <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1419,7 +1422,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1503,7 +1506,7 @@
         <v>43</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1688,7 +1691,7 @@
         <v>11</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1775,7 +1778,7 @@
         <v>8</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1792,7 +1795,7 @@
         <v>8</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2047,7 +2050,7 @@
         <v>7</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2162,7 +2165,7 @@
         <v>7</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2204,7 +2207,7 @@
         <v>142</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2218,7 +2221,7 @@
         <v>144</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2232,7 +2235,7 @@
         <v>146</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2246,7 +2249,7 @@
         <v>148</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2260,7 +2263,7 @@
         <v>150</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2274,7 +2277,7 @@
         <v>152</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2288,10 +2291,10 @@
         <v>154</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E73" s="17" t="s">
         <v>206</v>
-      </c>
-      <c r="E73" s="17" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2305,10 +2308,10 @@
         <v>156</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E74" s="17" t="s">
         <v>206</v>
-      </c>
-      <c r="E74" s="17" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2322,10 +2325,10 @@
         <v>158</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E75" s="17" t="s">
         <v>206</v>
-      </c>
-      <c r="E75" s="17" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2339,7 +2342,7 @@
         <v>160</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2353,7 +2356,7 @@
         <v>162</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2367,7 +2370,7 @@
         <v>164</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2381,7 +2384,7 @@
         <v>166</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2395,7 +2398,7 @@
         <v>168</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2409,7 +2412,7 @@
         <v>170</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2423,7 +2426,7 @@
         <v>172</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2437,7 +2440,7 @@
         <v>174</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -2451,7 +2454,7 @@
         <v>176</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2465,7 +2468,7 @@
         <v>178</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2479,7 +2482,7 @@
         <v>180</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2493,7 +2496,7 @@
         <v>182</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2509,6 +2512,9 @@
       <c r="D88" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="E88" s="17" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
@@ -2521,7 +2527,7 @@
         <v>186</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2535,7 +2541,7 @@
         <v>188</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -2552,7 +2558,7 @@
         <v>8</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2566,7 +2572,7 @@
         <v>192</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2580,7 +2586,7 @@
         <v>194</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2594,7 +2600,7 @@
         <v>196</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2611,7 +2617,7 @@
         <v>8</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2625,7 +2631,7 @@
         <v>200</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Sources.xlsx
+++ b/assets/Sources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\HVAC_News_Scraper\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python_Projects\HVAC_News_Scraper\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4691D996-3513-4D84-BDAA-7C7923F49CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B14055F-85B6-46B6-B2B9-93FE6A0EBC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="1485" windowWidth="25155" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1197,21 +1197,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="50.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="50.33203125" customWidth="1"/>
+    <col min="3" max="3" width="61.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" style="17" customWidth="1"/>
+    <col min="7" max="7" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>4</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>4</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>4</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>4</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>4</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>4</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>4</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>4</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>4</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>4</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>4</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>4</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>4</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>4</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>4</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>4</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>4</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>4</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>4</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>4</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>4</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>4</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>4</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>4</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>4</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>4</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>4</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>4</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>4</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>4</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>4</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>4</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>4</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>4</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>4</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>4</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>140</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>140</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>140</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>140</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>140</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>140</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>140</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>140</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>140</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>140</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>140</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>140</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>140</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>140</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>140</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>140</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>140</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>140</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>140</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>140</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>140</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>140</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>140</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>140</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>140</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>140</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>140</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>140</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>140</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>140</v>
       </c>
@@ -2789,4 +2789,10 @@
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId96"/>
   <legacyDrawing r:id="rId97"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{b44ae497-40df-4094-93f7-434fdc68f94d}" enabled="1" method="Standard" siteId="{49d8b68c-4994-4077-9e38-e112c21fd0e3}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/assets/Sources.xlsx
+++ b/assets/Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python_Projects\HVAC_News_Scraper\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B14055F-85B6-46B6-B2B9-93FE6A0EBC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06901E02-5EB9-4086-858B-B9DB70233F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1197,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1279,14 +1279,14 @@
         <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="10">
         <f>COUNTIF(D1:D1000, "COMPLETED")</f>
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1300,7 +1300,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>16</v>
@@ -1321,14 +1321,14 @@
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>205</v>
       </c>
       <c r="H6" s="12">
         <f>COUNTIF(D2:D1001, "Updated")</f>
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1342,14 +1342,14 @@
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="11">
         <f>SUM(H2:H5)</f>
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">

--- a/assets/Sources.xlsx
+++ b/assets/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python_Projects\HVAC_News_Scraper\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06901E02-5EB9-4086-858B-B9DB70233F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBAC78D-B12A-4214-BE93-032504F71695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1198,7 +1198,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="H4" s="10">
         <f>COUNTIF(D1:D1000, "COMPLETED")</f>
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="H6" s="12">
         <f>COUNTIF(D2:D1001, "Updated")</f>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="H7" s="11">
         <f>SUM(H2:H5)</f>
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1387,11 +1387,11 @@
       <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="15" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">

--- a/assets/Sources.xlsx
+++ b/assets/Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python_Projects\HVAC_News_Scraper\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBAC78D-B12A-4214-BE93-032504F71695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523E2DB8-E531-4E19-9638-03DDB0229424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1198,7 +1198,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="H4" s="10">
         <f>COUNTIF(D1:D1000, "COMPLETED")</f>
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="H6" s="12">
         <f>COUNTIF(D2:D1001, "Updated")</f>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="H7" s="11">
         <f>SUM(H2:H5)</f>
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1405,7 +1405,7 @@
         <v>29</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">

--- a/assets/Sources.xlsx
+++ b/assets/Sources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python_Projects\HVAC_News_Scraper\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\HVAC_News_Scraper\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523E2DB8-E531-4E19-9638-03DDB0229424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BC4510-E1DB-443E-AB8A-7FC971CC772E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1198,20 +1198,20 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
-    <col min="2" max="2" width="50.33203125" customWidth="1"/>
-    <col min="3" max="3" width="61.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5546875" style="17" customWidth="1"/>
-    <col min="7" max="7" width="33.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="50.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1286,10 +1286,10 @@
       </c>
       <c r="H4" s="10">
         <f>COUNTIF(D1:D1000, "COMPLETED")</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1328,10 +1328,10 @@
       </c>
       <c r="H6" s="12">
         <f>COUNTIF(D2:D1001, "Updated")</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1349,10 +1349,10 @@
       </c>
       <c r="H7" s="11">
         <f>SUM(H2:H5)</f>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
@@ -1436,10 +1436,10 @@
         <v>33</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>4</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>4</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>4</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>4</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>4</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>4</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>4</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>4</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>4</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>4</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>4</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>4</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>4</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>4</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>4</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>4</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>4</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>4</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>4</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>4</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>4</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>4</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>4</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>4</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>4</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>4</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>4</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>4</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>4</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>4</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>4</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>4</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>4</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>4</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>4</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>4</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>140</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>140</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>140</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>140</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>140</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>140</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>140</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>140</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>140</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>140</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>140</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>140</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>140</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>140</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>140</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>140</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>140</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>140</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>140</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>140</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>140</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>140</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>140</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>140</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>140</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>140</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>140</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>140</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>140</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>140</v>
       </c>

--- a/assets/Sources.xlsx
+++ b/assets/Sources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\HVAC_News_Scraper\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python_Projects\HVAC_News_Scraper\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BC4510-E1DB-443E-AB8A-7FC971CC772E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0022E8C5-ABE3-4AB9-9E4F-AAD4E7202B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="9960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1198,20 +1198,20 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="50.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="50.33203125" customWidth="1"/>
+    <col min="3" max="3" width="61.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" style="17" customWidth="1"/>
+    <col min="7" max="7" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>4</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>4</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>4</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>4</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>4</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>4</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>4</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>4</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>4</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>4</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>4</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>4</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>4</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>4</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>4</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>4</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>4</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>4</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>4</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>4</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>4</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>4</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>4</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>4</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>4</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>4</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>4</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>4</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>4</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>4</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>4</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>4</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>4</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>4</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>4</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>4</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>140</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>140</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>140</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>140</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>140</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>140</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>140</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>140</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>140</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>140</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>140</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>140</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>140</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>140</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>140</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>140</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>140</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>140</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>140</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>140</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>140</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>140</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>140</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>140</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>140</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>140</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>140</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>140</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>140</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>140</v>
       </c>

--- a/assets/Sources.xlsx
+++ b/assets/Sources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python_Projects\HVAC_News_Scraper\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\HVAC_News_Scraper\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0022E8C5-ABE3-4AB9-9E4F-AAD4E7202B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF43386C-C84A-4915-852F-44EA73261D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="9960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1198,20 +1198,20 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
-    <col min="2" max="2" width="50.33203125" customWidth="1"/>
-    <col min="3" max="3" width="61.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5546875" style="17" customWidth="1"/>
-    <col min="7" max="7" width="33.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="50.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1286,10 +1286,10 @@
       </c>
       <c r="H4" s="10">
         <f>COUNTIF(D1:D1000, "COMPLETED")</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1307,10 +1307,10 @@
       </c>
       <c r="H5" s="12">
         <f>COUNTIF(D1:D1000, "NOT YET COMPLETED")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1328,10 +1328,10 @@
       </c>
       <c r="H6" s="12">
         <f>COUNTIF(D2:D1001, "Updated")</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1349,10 +1349,10 @@
       </c>
       <c r="H7" s="11">
         <f>SUM(H2:H5)</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1450,24 +1450,24 @@
         <v>35</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="15" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>4</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>4</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>4</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>4</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>4</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>4</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>4</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>4</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>4</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>4</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>4</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>4</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>4</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>4</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>4</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>4</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>4</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>4</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>4</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>4</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>4</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>4</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>4</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>4</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>4</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>4</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>4</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>4</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>4</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>4</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>4</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>4</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>4</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>4</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>4</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>4</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>140</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>140</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>140</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>140</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>140</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>140</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>140</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>140</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>140</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>140</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>140</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>140</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>140</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>140</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>140</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>140</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>140</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>140</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>140</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>140</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>140</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>140</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>140</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>140</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>140</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>140</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>140</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>140</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>140</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>140</v>
       </c>

--- a/assets/Sources.xlsx
+++ b/assets/Sources.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\HVAC_News_Scraper\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF43386C-C84A-4915-852F-44EA73261D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A232298C-E886-4D05-B3FF-1B4D8B161E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1198,7 +1198,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="H4" s="10">
         <f>COUNTIF(D1:D1000, "COMPLETED")</f>
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="H6" s="12">
         <f>COUNTIF(D2:D1001, "Updated")</f>
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="H7" s="11">
         <f>SUM(H2:H5)</f>
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1492,7 +1492,7 @@
         <v>41</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/assets/Sources.xlsx
+++ b/assets/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\HVAC_News_Scraper\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A232298C-E886-4D05-B3FF-1B4D8B161E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2231FC83-9D12-4526-A839-9D836E74D054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1198,7 +1198,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="H5" s="12">
         <f>COUNTIF(D1:D1000, "NOT YET COMPLETED")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="H6" s="12">
         <f>COUNTIF(D2:D1001, "Updated")</f>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="H7" s="11">
         <f>SUM(H2:H5)</f>
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1520,7 +1520,7 @@
         <v>45</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>16</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/assets/Sources.xlsx
+++ b/assets/Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\HVAC_News_Scraper\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2231FC83-9D12-4526-A839-9D836E74D054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B240E1-D980-46C1-957B-AEB25216EEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3180" yWindow="3015" windowWidth="25620" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1198,7 +1198,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/assets/Sources.xlsx
+++ b/assets/Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\HVAC_News_Scraper\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B240E1-D980-46C1-957B-AEB25216EEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C17BADC-B1E6-4B82-B157-A1066BCC3391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="3015" windowWidth="25620" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1198,7 +1198,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="H4" s="10">
         <f>COUNTIF(D1:D1000, "COMPLETED")</f>
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="H6" s="12">
         <f>COUNTIF(D2:D1001, "Updated")</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="H7" s="11">
         <f>SUM(H2:H5)</f>
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1534,7 +1534,7 @@
         <v>47</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/assets/Sources.xlsx
+++ b/assets/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\HVAC_News_Scraper\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C17BADC-B1E6-4B82-B157-A1066BCC3391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F033C7B3-E109-404D-8523-C7D0665C5146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1198,7 +1198,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="H4" s="10">
         <f>COUNTIF(D1:D1000, "COMPLETED")</f>
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="H6" s="12">
         <f>COUNTIF(D2:D1001, "Updated")</f>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="H7" s="11">
         <f>SUM(H2:H5)</f>
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1548,7 +1548,7 @@
         <v>49</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/assets/Sources.xlsx
+++ b/assets/Sources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\HVAC_News_Scraper\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python_Projects\HVAC_News_Scraper\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F033C7B3-E109-404D-8523-C7D0665C5146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21AC272-121E-41D0-8BF1-85580026E555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="9960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1197,21 +1197,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="50.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="50.33203125" customWidth="1"/>
+    <col min="3" max="3" width="61.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" style="17" customWidth="1"/>
+    <col min="7" max="7" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>4</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>4</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>4</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>4</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>4</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>4</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>4</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>4</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>4</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>4</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>4</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>4</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>4</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>4</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>4</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>4</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>4</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>4</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>4</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>4</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>4</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>4</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>4</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>4</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>4</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>4</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>4</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>4</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>4</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>4</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>4</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>4</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>4</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>4</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>4</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>4</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>140</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>140</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>140</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>140</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>140</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>140</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>140</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>140</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>140</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>140</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>140</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>140</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>140</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>140</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>140</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>140</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>140</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>140</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>140</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>140</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>140</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>140</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>140</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>140</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>140</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>140</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>140</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>140</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>140</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>140</v>
       </c>
